--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/138a9cedd38fcb68/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/138a9cedd38fcb68/Documents/New folder/devopslearners/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE35173F-650E-4A11-8C86-4C91E2CFC887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{FE35173F-650E-4A11-8C86-4C91E2CFC887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69238D74-00CE-4691-B382-6EA8A661AFBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE00E846-4A14-4864-879B-CFAD0A4CE6E2}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{EE00E846-4A14-4864-879B-CFAD0A4CE6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -45,16 +45,33 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>jatin</t>
+  </si>
+  <si>
+    <t>jatinbhalla18@gmail.com</t>
+  </si>
+  <si>
+    <t>azure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,13 +416,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E40A19-24CF-48DA-BAE6-9FD3D4283CA2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -418,7 +442,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EB15299-B214-44C2-A5BB-100CE0BABAA0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/138a9cedd38fcb68/Documents/New folder/devopslearners/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{FE35173F-650E-4A11-8C86-4C91E2CFC887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69238D74-00CE-4691-B382-6EA8A661AFBF}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{EE00E846-4A14-4864-879B-CFAD0A4CE6E2}"/>
+    <workbookView xWindow="20376" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,20 +41,20 @@
     <t>Team</t>
   </si>
   <si>
-    <t>jatin</t>
-  </si>
-  <si>
-    <t>jatinbhalla18@gmail.com</t>
-  </si>
-  <si>
-    <t>azure</t>
+    <t>shanky</t>
+  </si>
+  <si>
+    <t>shankythakur005@gmail.com</t>
+  </si>
+  <si>
+    <t>php, sql, html, css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,7 +208,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -408,27 +402,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E40A19-24CF-48DA-BAE6-9FD3D4283CA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -455,7 +449,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EB15299-B214-44C2-A5BB-100CE0BABAA0}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devopslearners\Update_XL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E8903-C325-4CD9-AFD3-D0C07D7BECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20376" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -48,13 +46,22 @@
   </si>
   <si>
     <t>php, sql, html, css</t>
+  </si>
+  <si>
+    <t>Akshay Pratap Singh</t>
+  </si>
+  <si>
+    <t>akshaysingh1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Manual Tester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,27 +409,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="41.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -445,11 +453,23 @@
       </c>
       <c r="C2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D5BE6B78-96EC-4FFC-8C2C-5D47B9806D11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devopslearners\Update_XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E8903-C325-4CD9-AFD3-D0C07D7BECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A65397D-26B2-4D74-A64B-E2372466AD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -215,7 +215,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>

--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devopslearners\Update_XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A65397D-26B2-4D74-A64B-E2372466AD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F106A5-D3FF-4DF5-8954-4B85611CE003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devopslearners\Update_XL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/138a9cedd38fcb68/Documents/devopslearner/devopslearners/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F106A5-D3FF-4DF5-8954-4B85611CE003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E2F106A5-D3FF-4DF5-8954-4B85611CE003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896E03B5-1CD6-43D9-8C8B-DD8F203096C1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24315" yWindow="1230" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Manual Tester</t>
+  </si>
+  <si>
+    <t>jatin bhalla</t>
+  </si>
+  <si>
+    <t>jatinbhalla18@gmail.com</t>
+  </si>
+  <si>
+    <t>Devops engineer</t>
   </si>
 </sst>
 </file>
@@ -417,20 +426,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -455,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -464,12 +473,24 @@
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{D5BE6B78-96EC-4FFC-8C2C-5D47B9806D11}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{B36ABC57-C157-4A4C-A68B-7B6CE6300617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/138a9cedd38fcb68/Documents/devopslearner/devopslearners/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishesh Pandey\devopslearners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E2F106A5-D3FF-4DF5-8954-4B85611CE003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896E03B5-1CD6-43D9-8C8B-DD8F203096C1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2CC62D-9EC6-4B80-8E4F-3C01BC21DDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24315" yWindow="1230" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Devops engineer</t>
+  </si>
+  <si>
+    <t>Vishesh Pandey</t>
+  </si>
+  <si>
+    <t>visheshpandey0@gmail.com</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
   </si>
 </sst>
 </file>
@@ -426,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -464,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -475,7 +484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -484,6 +493,17 @@
       </c>
       <c r="C4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -491,6 +511,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{D5BE6B78-96EC-4FFC-8C2C-5D47B9806D11}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{B36ABC57-C157-4A4C-A68B-7B6CE6300617}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{B0908E09-43A9-4F4D-9196-2789595BA7C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishesh Pandey\devopslearners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2CC62D-9EC6-4B80-8E4F-3C01BC21DDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32D1F4-5F4B-4717-BDFB-FF7B0BCB8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,13 +66,13 @@
     <t>Devops engineer</t>
   </si>
   <si>
-    <t>Vishesh Pandey</t>
-  </si>
-  <si>
     <t>visheshpandey0@gmail.com</t>
   </si>
   <si>
     <t>Java Developer</t>
+  </si>
+  <si>
+    <t>vishesh pandey</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,13 +497,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishesh Pandey\devopslearners\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devops learners\devopslearners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32D1F4-5F4B-4717-BDFB-FF7B0BCB8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25BA32-5D9D-40E6-A080-E84ECB8CC4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +74,48 @@
   </si>
   <si>
     <t>vishesh pandey</t>
+  </si>
+  <si>
+    <t>submodule</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Sowmya</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/modules/describe-core-architectural-components-of-azure/</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/paths/azure-fundamentals-describe-azure-architecture-services/</t>
+  </si>
+  <si>
+    <t>saikiran</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/modules/describe-azure-compute-networking-services/</t>
+  </si>
+  <si>
+    <t>3rd aug</t>
+  </si>
+  <si>
+    <t>Faisal</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/modules/describe-azure-storage-services/</t>
+  </si>
+  <si>
+    <t>4th aug</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/modules/describe-azure-identity-access-security/</t>
+  </si>
+  <si>
+    <t>5th Aug</t>
   </si>
 </sst>
 </file>
@@ -117,9 +160,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,18 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -473,7 +520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -484,7 +531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -495,7 +542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -515,4 +562,86 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8C0291-BE1C-4D05-B458-6E35CCEE792E}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devops learners\devopslearners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25BA32-5D9D-40E6-A080-E84ECB8CC4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092131E-CA7E-43D5-92CB-F5988FFBDED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -116,6 +116,51 @@
   </si>
   <si>
     <t>5th Aug</t>
+  </si>
+  <si>
+    <t>describe-core-architectural-components-of-azure</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>describe-azure-compute-networking-services</t>
+  </si>
+  <si>
+    <t>describe-azure-storage-services</t>
+  </si>
+  <si>
+    <t>describe-azure-identity-access-security</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/paths/describe-azure-management-governance/</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/modules/describe-cost-management-azure/</t>
+  </si>
+  <si>
+    <t>describe-cost-management-azure</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/modules/describe-features-tools-azure-for-governance-compliance/</t>
+  </si>
+  <si>
+    <t>describe-features-tools-azure-for-governance-compliance</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/modules/describe-features-tools-manage-deploy-azure-resources/</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/modules/describe-monitoring-tools-azure/</t>
+  </si>
+  <si>
+    <t>describe-features-tools-manage-deploy-azure-resources</t>
+  </si>
+  <si>
+    <t>describe-monitoring-tools-azure</t>
   </si>
 </sst>
 </file>
@@ -160,13 +205,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,15 +614,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8C0291-BE1C-4D05-B458-6E35CCEE792E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +637,14 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -598,12 +657,15 @@
       <c r="D2" s="3">
         <v>44775</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -612,12 +674,15 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -626,12 +691,15 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -640,8 +708,64 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{301359FC-F87F-4F3C-90DA-09F5B34C9294}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{D01E523A-2F04-4C2F-A14D-AA8DB9C800A5}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{5DD808C0-6D20-4288-B86C-E839F66C61DD}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{9E4D80EF-2258-4CF1-8EF3-B1EBB7B0CF0A}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{17C164AC-1580-451F-B743-B673DA22B988}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{2620BAFE-58EC-46AD-8B67-8D5748390F0E}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{7FE02E04-548A-4560-BC77-74C9154150A6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devops learners\devopslearners\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\devopslearners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092131E-CA7E-43D5-92CB-F5988FFBDED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2794FFE-77BF-4FBA-A594-94307ABFD777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>describe-monitoring-tools-azure</t>
+  </si>
+  <si>
+    <t>Parul Chaubey</t>
+  </si>
+  <si>
+    <t>parulchaubey88@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -530,20 +536,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -568,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -579,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -590,7 +596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -599,6 +605,14 @@
       </c>
       <c r="C5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -607,6 +621,7 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{D5BE6B78-96EC-4FFC-8C2C-5D47B9806D11}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{B36ABC57-C157-4A4C-A68B-7B6CE6300617}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{B0908E09-43A9-4F4D-9196-2789595BA7C1}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{37189983-914E-47D5-9299-7C351271960B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -616,18 +631,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8C0291-BE1C-4D05-B458-6E35CCEE792E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" customWidth="1"/>
+    <col min="5" max="5" width="56.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -661,7 +674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -678,7 +691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -695,7 +708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -712,7 +725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
@@ -723,7 +736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
@@ -734,7 +747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
@@ -745,7 +758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>

--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\devopslearners\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devops learners\devopslearners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2794FFE-77BF-4FBA-A594-94307ABFD777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416134FF-066F-422B-8E9C-CD8D23DEA494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="az900" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -538,18 +538,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -574,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -607,7 +607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -631,16 +631,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8C0291-BE1C-4D05-B458-6E35CCEE792E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" customWidth="1"/>
-    <col min="5" max="5" width="56.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,11 +659,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -674,7 +676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -691,7 +693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -708,7 +710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -725,7 +727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
@@ -736,7 +738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
@@ -747,7 +749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
@@ -758,7 +760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
@@ -778,6 +780,7 @@
     <hyperlink ref="C7" r:id="rId5" xr:uid="{17C164AC-1580-451F-B743-B673DA22B988}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{2620BAFE-58EC-46AD-8B67-8D5748390F0E}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{7FE02E04-548A-4560-BC77-74C9154150A6}"/>
+    <hyperlink ref="B2" r:id="rId8" xr:uid="{EDE8714A-D0DB-474D-BA89-6E52A8587F3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Devops learners.xlsx
+++ b/Devops learners.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devops learners\devopslearners\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-saitha\Downloads\job &amp; study\devopslearners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416134FF-066F-422B-8E9C-CD8D23DEA494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A13800E-ADAD-4FD5-AEE0-6663C11F6749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Module</t>
-  </si>
-  <si>
-    <t>Sowmya</t>
   </si>
   <si>
     <t>https://docs.microsoft.com/en-us/learn/modules/describe-core-architectural-components-of-azure/</t>
@@ -609,10 +606,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -653,122 +650,122 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="3">
         <v>44775</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
